--- a/Auto_Junior_v2.xlsx
+++ b/Auto_Junior_v2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B36922-0D02-4421-BAF7-AD0AFD10867C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8190" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="網路銀行登入流程" sheetId="26" r:id="rId1"/>
@@ -22,14 +16,13 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Case!$B$2:$M$3</definedName>
     <definedName name="A">[1]Sheet1!$A$2:$A$25</definedName>
     <definedName name="WWW">[2]Sheet1!$A$2:$A$22</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -125,10 +118,6 @@
   </si>
   <si>
     <t>程式語言不限，建議使用Python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國泰銀行要慶祝六十周年，需要買字母貼紙來布置活動空間，文字為"Hello welcome to Cathay 60th year anniversary"，請寫一個程式計算每個字母(大小寫視為同個字母)出現次數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,11 +427,15 @@
     <t>輸入錯誤用戶代號(其他項目皆正確)而登入失敗時，會寄信通知使用者，並會顯示登入失敗原因"用戶代號連續錯誤1次"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>國泰銀行要慶祝六十周年，需要買字母貼紙來布置活動空間，文字為"Hello welcome to Cathay 60th year anniversary"，請寫一個程式計算每個字母(大小寫視為同個字母)出現次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -858,9 +851,9 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规_03_ERPF-测试-测试案例模版-资产0603" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2" xfId="3"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="常规_03_ERPF-测试-测试案例模版-资产0603" xfId="1"/>
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="45">
@@ -1213,7 +1206,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C1CCE7-4556-4967-BC8D-2BEB4E3EF2A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3C1CCE7-4556-4967-BC8D-2BEB4E3EF2A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1245,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1CC061-D220-4810-972F-4B8E9E8E3CC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D1CC061-D220-4810-972F-4B8E9E8E3CC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1284,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9580B60-D0D2-4405-BEFA-483967E2970A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9580B60-D0D2-4405-BEFA-483967E2970A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1296,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1323,7 +1316,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1352,7 +1345,7 @@
         <xdr:cNvPr id="5" name="直線單箭頭接點 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C6CDEB-1B75-4174-941A-0603DEE17C71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6C6CDEB-1B75-4174-941A-0603DEE17C71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1405,7 @@
         <xdr:cNvPr id="6" name="直線單箭頭接點 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80689595-7DC9-478D-B784-1AACCD380D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80689595-7DC9-478D-B784-1AACCD380D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1460,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881C3070-4394-4D76-B7C2-05743CEA7B10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{881C3070-4394-4D76-B7C2-05743CEA7B10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1504,7 @@
         <xdr:cNvPr id="8" name="肘形接點 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71E78B8-144A-48AB-B9F4-BAD5CE717A53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C71E78B8-144A-48AB-B9F4-BAD5CE717A53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1558,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E1D53B-E67D-4636-B7DA-AA81BD60CBC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E3E1D53B-E67D-4636-B7DA-AA81BD60CBC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1602,7 @@
         <xdr:cNvPr id="10" name="肘形接點 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824EB0B0-1F93-4D1F-ACE3-6BD3CDF44CBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{824EB0B0-1F93-4D1F-ACE3-6BD3CDF44CBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1656,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F582ED16-906E-4F0E-BCE2-1760BD10BDA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F582ED16-906E-4F0E-BCE2-1760BD10BDA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1695,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EC98ED-2CB9-45FE-9CA9-539B89F635BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38EC98ED-2CB9-45FE-9CA9-539B89F635BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1734,7 @@
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3ADD153-ED61-4C1A-8EF5-C75DE5AB45B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3ADD153-ED61-4C1A-8EF5-C75DE5AB45B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1778,7 @@
         <xdr:cNvPr id="14" name="直線單箭頭接點 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A19B65-C6AF-444F-9729-829F6EF9423A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33A19B65-C6AF-444F-9729-829F6EF9423A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1833,7 @@
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB19A896-3180-4F9B-A868-9F2936558959}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB19A896-3180-4F9B-A868-9F2936558959}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1882,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8595331-3E06-4A50-8697-583F66E82A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8595331-3E06-4A50-8697-583F66E82A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,14 +1926,14 @@
         <xdr:cNvPr id="4" name="圖片 3" descr="C:\Users\small\AppData\Local\Temp\SNAGHTML7982e5a9.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0C889E-C933-4D65-A493-7622FA71085B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E0C889E-C933-4D65-A493-7622FA71085B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1983,7 +1976,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649703E4-B353-484C-9BDC-8CF201DE7DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{649703E4-B353-484C-9BDC-8CF201DE7DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2006,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2183,7 +2176,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2331,85 +2324,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="summary"/>
-      <sheetName val="Case"/>
-      <sheetName val="A1"/>
-      <sheetName val="A5_2"/>
-      <sheetName val="A5-3"/>
-      <sheetName val="A7-1"/>
-      <sheetName val="A7-2"/>
-      <sheetName val="A8-1"/>
-      <sheetName val="A8-2"/>
-      <sheetName val="A8-4"/>
-      <sheetName val="A8-5"/>
-      <sheetName val="A8-6"/>
-      <sheetName val="A9"/>
-      <sheetName val="A10-1"/>
-      <sheetName val="A10-2"/>
-      <sheetName val="A10-3"/>
-      <sheetName val="A11"/>
-      <sheetName val="C1"/>
-      <sheetName val="C2"/>
-      <sheetName val="C3"/>
-      <sheetName val="C4"/>
-      <sheetName val="C6"/>
-      <sheetName val="C7"/>
-      <sheetName val="C8"/>
-      <sheetName val="D10"/>
-      <sheetName val="E1"/>
-      <sheetName val="E2-1"/>
-      <sheetName val="E2-2"/>
-      <sheetName val="F1"/>
-      <sheetName val="G1"/>
-      <sheetName val="G2"/>
-      <sheetName val="G3"/>
-      <sheetName val="晶片"/>
-      <sheetName val="column"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -2453,7 +2367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2485,27 +2399,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2537,24 +2433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2730,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB99827-12A4-4715-899F-DDCA35636C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2749,21 +2627,21 @@
   <sheetData>
     <row r="1" spans="2:5" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15" customHeight="1">
       <c r="B2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1">
@@ -2926,7 +2804,7 @@
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="20"/>
     </row>
@@ -3090,10 +2968,10 @@
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15" customHeight="1">
@@ -3278,7 +3156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2911E40C-D7FB-47ED-A613-3719E88FBA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -3309,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="24"/>
       <c r="D1" s="26"/>
@@ -3326,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>0</v>
@@ -3341,7 +3219,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>10</v>
@@ -3353,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>12</v>
@@ -3361,34 +3239,34 @@
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
       <c r="A3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>52</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>53</v>
       </c>
       <c r="F3" s="32">
         <v>1</v>
       </c>
       <c r="G3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="K3" s="36">
         <v>44741</v>
@@ -3401,31 +3279,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="F4" s="32">
         <v>2</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="43">
         <v>44964</v>
@@ -3438,31 +3316,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="32">
         <v>2</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J5" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" s="43">
         <v>44964</v>
@@ -3475,31 +3353,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="32">
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J6" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6" s="43">
         <v>44964</v>
@@ -3512,31 +3390,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="32">
         <v>2</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J7" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="43">
         <v>44964</v>
@@ -3549,31 +3427,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="32">
         <v>2</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J8" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="43">
         <v>44964</v>
@@ -3586,31 +3464,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="32">
         <v>2</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J9" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="43">
         <v>44964</v>
@@ -3623,31 +3501,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="F10" s="32">
         <v>1</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J10" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="43">
         <v>44964</v>
@@ -3660,31 +3538,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>79</v>
-      </c>
       <c r="E11" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="32">
         <v>1</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J11" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="43">
         <v>44964</v>
@@ -3697,31 +3575,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="43">
         <v>44964</v>
@@ -3734,31 +3612,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>63</v>
-      </c>
       <c r="E13" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="32">
         <v>1</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>60</v>
-      </c>
       <c r="J13" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="36">
         <v>44964</v>
@@ -3771,31 +3649,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>62</v>
-      </c>
       <c r="D14" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>85</v>
       </c>
       <c r="F14" s="32">
         <v>1</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J14" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" s="43">
         <v>44964</v>
@@ -3808,31 +3686,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>62</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="32">
         <v>1</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="J15" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="43">
         <v>44964</v>
@@ -11744,7 +11622,7 @@
       <c r="H886" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:M3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B2:M3"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J16:J17 J20:J886 J4:J5">
     <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
@@ -11912,11 +11790,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D3" location="'A1'!A1" display="A1" xr:uid="{AABE5F21-2665-4EE7-ADE9-96A63554353E}"/>
+    <hyperlink ref="D3" location="'A1'!A1" display="A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE61BA2-1DFB-4688-B1D7-F904F8A9BFCF}">
@@ -11932,14 +11810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEFEB9E-2B73-459D-AD33-B1E68AFDFCA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11986,10 +11864,10 @@
     </row>
     <row r="9" spans="1:2" ht="165.95" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12000,13 +11878,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813223BA-96E1-42D7-9062-E522E9EC9F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -12035,12 +11913,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12056,35 +11934,35 @@
     </row>
     <row r="10" spans="1:3" ht="249.6" customHeight="1">
       <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="207.6" customHeight="1">
       <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="313.5" customHeight="1">
       <c r="A12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12129,7 +12007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
